--- a/DDoS/检测/检测方法流派/基于行为特征异常检测 AIDS/Machine Learning -Based/ML全阶段对比.xlsx
+++ b/DDoS/检测/检测方法流派/基于行为特征异常检测 AIDS/Machine Learning -Based/ML全阶段对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="5745" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="28245" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="数据集处理与流量模拟" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>总览</t>
   </si>
@@ -93,6 +93,15 @@
     <t>指出了一些可用数据集，并对相关工作概括为:目前两种基于机器学习的主要检测方法在数据处理上分为两类，第一类是基于模拟的方法，第二类是基于公共数据集的方法。原文表1中的统计可作为本页的补充</t>
   </si>
   <si>
+    <t xml:space="preserve">CICDDoS系列 2017-2019  </t>
+  </si>
+  <si>
+    <t>InSDN_A_Novel_SDN_Intrusion_Dataset   SDN-IDS的专用数据集,同时文中也指出了一些DDoS相关工具</t>
+  </si>
+  <si>
+    <t>ToN-IOT</t>
+  </si>
+  <si>
     <t>立意</t>
   </si>
   <si>
@@ -129,10 +138,21 @@
     <t>Statistical(时序分析Gramian角)+场(GASF)变换 选取出来的特征</t>
   </si>
   <si>
-    <t>InSDN_A_Novel_SDN_Intrusion_Dataset</t>
-  </si>
-  <si>
-    <t>SDN-IDS的专用数据集,同时文中也指出了一些DDoS相关工具</t>
+    <r>
+      <t xml:space="preserve">Sahoo et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="TimesLTStd-Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[96]</t>
+    </r>
+  </si>
+  <si>
+    <t>Kernel Principal Component Analysis (KPCA) and Genetic Algorithm (GA)</t>
   </si>
   <si>
     <t>交叉验证防过拟合  防止训练时模型过拟合而影响训练精度</t>
@@ -188,7 +208,10 @@
     <t>Acc,  Recall,   F1-Score, NDCG(归一化累加误差,用于反映排名靠前数据相关性)   PFE(第一误差位置,用于反映局部排序正确性),删除命中率,删除缺失率，删除错误率，正常条目存活率</t>
   </si>
   <si>
-    <t>Acc,Pre,Recall,F1-Score, 对比模型时使用(接收者工作曲线 ROC,AUC,用以衡量参数在两个诊断组间区分程度)</t>
+    <t>Acc,Pre,Recall,F1-Score, 对比模型时使用(接收者工作曲线 ROC  ,AUC,用以衡量参数在两个诊断组间区分程度)</t>
+  </si>
+  <si>
+    <t>计算时间，AUC</t>
   </si>
   <si>
     <t>提升或改进点</t>
@@ -258,12 +281,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +310,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="TimesLTStd-Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -294,8 +323,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +374,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -324,14 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -341,59 +446,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -401,34 +460,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="TimesLTStd-Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -440,187 +475,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,11 +684,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,30 +739,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -712,26 +753,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,16 +772,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,137 +799,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -923,8 +958,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1245,10 +1287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1302,7 +1344,7 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1334,7 +1376,7 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1344,6 +1386,21 @@
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="42.75" customHeight="1" spans="1:2">
@@ -1385,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:2">
@@ -1393,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:2">
@@ -1401,7 +1458,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1409,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1417,7 +1474,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:2">
@@ -1464,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1472,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1480,7 +1537,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1522,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1530,12 +1587,12 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1631,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1627,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1635,7 +1692,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1643,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1685,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="29" customHeight="1" spans="1:2">
@@ -1693,7 +1750,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1705,10 +1762,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1719,7 +1776,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="1"/>
@@ -1731,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1739,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1747,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1755,15 +1812,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
+      <c r="A10"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1810,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1818,7 +1879,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1853,10 +1914,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1864,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1872,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1880,7 +1941,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1888,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:2">
@@ -1896,7 +1957,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1991,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1938,7 +1999,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1946,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1954,7 +2015,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1966,10 +2027,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1993,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2001,7 +2062,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2009,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2017,7 +2078,12 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2117,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2059,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2067,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2075,7 +2141,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
